--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/ABCDF/20/seed5/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/ABCDF/20/seed5/result_data_RandomForest.xlsx
@@ -482,7 +482,7 @@
         <v>-21.67</v>
       </c>
       <c r="B3" t="n">
-        <v>5.099399999999997</v>
+        <v>5.435199999999994</v>
       </c>
       <c r="C3" t="n">
         <v>-9.76</v>
@@ -491,7 +491,7 @@
         <v>-6.85</v>
       </c>
       <c r="E3" t="n">
-        <v>12.7681</v>
+        <v>13.19699999999999</v>
       </c>
     </row>
     <row r="4">
@@ -499,7 +499,7 @@
         <v>-22.38</v>
       </c>
       <c r="B4" t="n">
-        <v>4.681600000000002</v>
+        <v>4.649100000000003</v>
       </c>
       <c r="C4" t="n">
         <v>-11.3</v>
@@ -536,7 +536,7 @@
         <v>7.87</v>
       </c>
       <c r="C6" t="n">
-        <v>-11.0517</v>
+        <v>-11.0423</v>
       </c>
       <c r="D6" t="n">
         <v>-8.59</v>
@@ -550,10 +550,10 @@
         <v>-21.21</v>
       </c>
       <c r="B7" t="n">
-        <v>6.718200000000001</v>
+        <v>6.698500000000001</v>
       </c>
       <c r="C7" t="n">
-        <v>-11.45439999999999</v>
+        <v>-11.7412</v>
       </c>
       <c r="D7" t="n">
         <v>-9.31</v>
@@ -567,16 +567,16 @@
         <v>-21.48</v>
       </c>
       <c r="B8" t="n">
-        <v>5.377099999999993</v>
+        <v>5.348299999999995</v>
       </c>
       <c r="C8" t="n">
-        <v>-10.44919999999999</v>
+        <v>-10.30469999999999</v>
       </c>
       <c r="D8" t="n">
         <v>-7.09</v>
       </c>
       <c r="E8" t="n">
-        <v>13.0842</v>
+        <v>13.08629999999999</v>
       </c>
     </row>
     <row r="9">
@@ -593,7 +593,7 @@
         <v>-9.9</v>
       </c>
       <c r="E9" t="n">
-        <v>14.47170000000001</v>
+        <v>13.26280000000002</v>
       </c>
     </row>
     <row r="10">
@@ -615,7 +615,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-21.98770000000002</v>
+        <v>-21.8095</v>
       </c>
       <c r="B11" t="n">
         <v>6.01</v>
@@ -624,7 +624,7 @@
         <v>-13.87</v>
       </c>
       <c r="D11" t="n">
-        <v>-8.902599999999989</v>
+        <v>-9.00639999999999</v>
       </c>
       <c r="E11" t="n">
         <v>13.91</v>
@@ -632,10 +632,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-22.76350000000002</v>
+        <v>-22.73320000000001</v>
       </c>
       <c r="B12" t="n">
-        <v>6.522500000000004</v>
+        <v>6.575600000000001</v>
       </c>
       <c r="C12" t="n">
         <v>-15.79</v>
@@ -669,13 +669,13 @@
         <v>-20.07</v>
       </c>
       <c r="B14" t="n">
-        <v>9.663099999999998</v>
+        <v>9.153699999999999</v>
       </c>
       <c r="C14" t="n">
         <v>-11.89</v>
       </c>
       <c r="D14" t="n">
-        <v>-8.897999999999996</v>
+        <v>-8.803699999999994</v>
       </c>
       <c r="E14" t="n">
         <v>12.97</v>
@@ -683,7 +683,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-21.40580000000001</v>
+        <v>-21.53320000000003</v>
       </c>
       <c r="B15" t="n">
         <v>5.53</v>
@@ -757,13 +757,13 @@
         <v>5.44</v>
       </c>
       <c r="C19" t="n">
-        <v>-12.5606</v>
+        <v>-12.12849999999999</v>
       </c>
       <c r="D19" t="n">
-        <v>-8.543599999999993</v>
+        <v>-8.471499999999994</v>
       </c>
       <c r="E19" t="n">
-        <v>13.34819999999999</v>
+        <v>13.1354</v>
       </c>
     </row>
     <row r="20">
@@ -791,10 +791,10 @@
         <v>7.49</v>
       </c>
       <c r="C21" t="n">
-        <v>-12.8465</v>
+        <v>-13.31539999999998</v>
       </c>
       <c r="D21" t="n">
-        <v>-8.965299999999992</v>
+        <v>-9.056499999999989</v>
       </c>
       <c r="E21" t="n">
         <v>13.76</v>
@@ -805,7 +805,7 @@
         <v>-20.95</v>
       </c>
       <c r="B22" t="n">
-        <v>5.297200000000003</v>
+        <v>5.460400000000002</v>
       </c>
       <c r="C22" t="n">
         <v>-10.65</v>
@@ -842,7 +842,7 @@
         <v>9.130000000000001</v>
       </c>
       <c r="C24" t="n">
-        <v>-11.43719999999999</v>
+        <v>-12.0197</v>
       </c>
       <c r="D24" t="n">
         <v>-9.24</v>
@@ -859,7 +859,7 @@
         <v>5.09</v>
       </c>
       <c r="C25" t="n">
-        <v>-10.60749999999999</v>
+        <v>-10.6484</v>
       </c>
       <c r="D25" t="n">
         <v>-7.71</v>
